--- a/Param_Tasks.xlsx
+++ b/Param_Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="TRL" sheetId="2" r:id="rId1"/>
@@ -539,9 +539,6 @@
     <t>Результаты тестирования модели в расширенном диапазоне параметров соответствуют ТЗ и одобрены Заказчиком.</t>
   </si>
   <si>
-    <t>Определены области ограничений применения технологии (где применять нецелесообразно или запрещено), в т.ч. законодательные ограничения, рыночные ограничения, научно--технологические ограничения, ограничения, связанные с использованием предшествующей и получаемой интеллектуальной собственностью, экологические ограничения и др.</t>
-  </si>
-  <si>
     <t>Изготовлен испытательный стенд для проведения испытания расширенного набора функций</t>
   </si>
   <si>
@@ -1410,6 +1407,9 @@
   </si>
   <si>
     <t>Определены ключевые факторы технологического риска, исследовано их влияние процесс разработки</t>
+  </si>
+  <si>
+    <t>Определены области ограничений применения технологии (где применять нецелесообразно или запрещено), в т.ч. законодательные ограничения, рыночные ограничения, научно-технологические ограничения, ограничения, связанные с использованием предшествующей и получаемой интеллектуальной собственностью, экологические ограничения и др.</t>
   </si>
 </sst>
 </file>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -2123,7 +2123,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>104</v>
@@ -2140,10 +2140,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>104</v>
@@ -2160,10 +2160,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>104</v>
@@ -2180,10 +2180,10 @@
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>104</v>
@@ -2200,10 +2200,10 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>104</v>
@@ -2243,7 +2243,7 @@
         <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>111</v>
@@ -2260,10 +2260,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>111</v>
@@ -2280,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>111</v>
@@ -2300,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>111</v>
@@ -2360,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>63</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>63</v>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>63</v>
@@ -2463,7 +2463,7 @@
         <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>129</v>
@@ -2480,10 +2480,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>129</v>
@@ -2500,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>129</v>
@@ -2520,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>129</v>
@@ -2560,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>73</v>
@@ -2580,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>73</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>79</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>79</v>
@@ -2718,10 +2718,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -2741,7 +2741,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -2778,10 +2778,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>91</v>
@@ -2801,7 +2801,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
@@ -2818,10 +2818,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>91</v>
@@ -2838,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -2858,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>97</v>
@@ -2881,7 +2881,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>97</v>
@@ -2901,7 +2901,7 @@
         <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>97</v>
@@ -2918,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>97</v>
@@ -2938,7 +2938,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>54</v>
@@ -2958,10 +2958,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>106</v>
@@ -2981,7 +2981,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>106</v>
@@ -3001,7 +3001,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>106</v>
@@ -3018,10 +3018,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>106</v>
@@ -3038,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>59</v>
@@ -3078,7 +3078,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
@@ -3118,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>64</v>
@@ -3141,7 +3141,7 @@
         <v>150</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>150</v>
@@ -3161,7 +3161,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>150</v>
@@ -3178,10 +3178,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>150</v>
@@ -3198,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>69</v>
@@ -3218,10 +3218,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>130</v>
@@ -3241,7 +3241,7 @@
         <v>130</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>130</v>
@@ -3261,7 +3261,7 @@
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>130</v>
@@ -3278,10 +3278,10 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>130</v>
@@ -3298,10 +3298,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>130</v>
@@ -3318,10 +3318,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>130</v>
@@ -3335,10 +3335,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>74</v>
@@ -3355,13 +3355,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>137</v>
@@ -3375,13 +3375,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>137</v>
@@ -3395,13 +3395,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>137</v>
@@ -3419,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
@@ -3473,10 +3473,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>80</v>
@@ -3496,7 +3496,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>80</v>
@@ -3510,10 +3510,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
@@ -3530,13 +3530,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>84</v>
@@ -3550,13 +3550,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>84</v>
@@ -3570,13 +3570,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>84</v>
@@ -3590,13 +3590,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>84</v>
@@ -3610,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>145</v>
@@ -3630,13 +3630,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>145</v>
@@ -3650,13 +3650,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>145</v>
@@ -3670,13 +3670,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>145</v>
@@ -3690,10 +3690,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>50</v>
@@ -3710,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>99</v>
@@ -3730,13 +3730,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>99</v>
@@ -3750,13 +3750,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>99</v>
@@ -3770,13 +3770,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>99</v>
@@ -3790,13 +3790,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>99</v>
@@ -3836,7 +3836,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>148</v>
@@ -3853,10 +3853,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>148</v>
@@ -3873,10 +3873,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>148</v>
@@ -3893,10 +3893,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>148</v>
@@ -3913,10 +3913,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>148</v>
@@ -3953,10 +3953,10 @@
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>115</v>
@@ -3976,7 +3976,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>115</v>
@@ -3993,10 +3993,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>115</v>
@@ -4013,10 +4013,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>115</v>
@@ -4030,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>124</v>
@@ -4050,13 +4050,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>124</v>
@@ -4070,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>124</v>
@@ -4090,13 +4090,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>124</v>
@@ -4110,10 +4110,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>70</v>
@@ -4130,13 +4130,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>132</v>
@@ -4150,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>132</v>
@@ -4170,13 +4170,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>132</v>
@@ -4190,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>132</v>
@@ -4210,7 +4210,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>139</v>
@@ -4230,10 +4230,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
@@ -4250,10 +4250,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -4267,6 +4267,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4308,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -4331,10 +4332,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -4348,13 +4349,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -4368,13 +4369,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -4388,13 +4389,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -4408,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
@@ -4428,10 +4429,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>86</v>
@@ -4448,10 +4449,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>86</v>
@@ -4471,7 +4472,7 @@
         <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>86</v>
@@ -4491,7 +4492,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>86</v>
@@ -4508,10 +4509,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>86</v>
@@ -4528,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>46</v>
@@ -4551,7 +4552,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>94</v>
@@ -4568,10 +4569,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
@@ -4588,10 +4589,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>94</v>
@@ -4608,10 +4609,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>94</v>
@@ -4628,10 +4629,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>94</v>
@@ -4651,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>94</v>
@@ -4691,7 +4692,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>101</v>
@@ -4708,10 +4709,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>101</v>
@@ -4728,10 +4729,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>101</v>
@@ -4748,10 +4749,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>101</v>
@@ -4768,10 +4769,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>101</v>
@@ -4791,7 +4792,7 @@
         <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>101</v>
@@ -4805,10 +4806,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -4825,13 +4826,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>109</v>
@@ -4845,13 +4846,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>109</v>
@@ -4865,13 +4866,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>109</v>
@@ -4885,13 +4886,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>109</v>
@@ -4908,7 +4909,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>61</v>
@@ -4931,7 +4932,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>117</v>
@@ -4948,10 +4949,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>117</v>
@@ -4968,10 +4969,10 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>117</v>
@@ -4991,7 +4992,7 @@
         <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>117</v>
@@ -5008,10 +5009,10 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>117</v>
@@ -5025,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>126</v>
@@ -5045,13 +5046,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>126</v>
@@ -5065,13 +5066,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>126</v>
@@ -5085,13 +5086,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>126</v>
@@ -5105,13 +5106,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>126</v>
@@ -5125,13 +5126,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>126</v>
@@ -5145,13 +5146,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>126</v>
@@ -5168,7 +5169,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>71</v>
@@ -5188,10 +5189,10 @@
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>134</v>
@@ -5208,10 +5209,10 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>134</v>
@@ -5231,7 +5232,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>134</v>
@@ -5251,7 +5252,7 @@
         <v>135</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>134</v>
@@ -5268,10 +5269,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>134</v>
@@ -5308,7 +5309,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>76</v>
@@ -5328,7 +5329,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>76</v>
@@ -5348,7 +5349,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>76</v>
@@ -5368,7 +5369,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>76</v>
@@ -5388,7 +5389,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>76</v>
@@ -5428,7 +5429,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>76</v>
@@ -5480,13 +5481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>144</v>
@@ -5500,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>144</v>
@@ -5520,13 +5521,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>144</v>
@@ -5540,13 +5541,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>144</v>
@@ -5560,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>144</v>
@@ -5580,10 +5581,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -5600,13 +5601,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>88</v>
@@ -5620,13 +5621,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>88</v>
@@ -5640,13 +5641,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>88</v>
@@ -5660,13 +5661,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>88</v>
@@ -5683,7 +5684,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>47</v>
@@ -5703,10 +5704,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>146</v>
@@ -5723,10 +5724,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>146</v>
@@ -5743,10 +5744,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>146</v>
@@ -5766,7 +5767,7 @@
         <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>146</v>
@@ -5783,10 +5784,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>146</v>
@@ -5800,10 +5801,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>52</v>
@@ -5820,13 +5821,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>103</v>
@@ -5840,13 +5841,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>103</v>
@@ -5860,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>103</v>
@@ -5880,13 +5881,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>103</v>
@@ -5900,13 +5901,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>103</v>
@@ -5923,7 +5924,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>57</v>
@@ -5943,7 +5944,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>57</v>
@@ -5963,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>57</v>
@@ -6003,7 +6004,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>57</v>
@@ -6023,7 +6024,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>62</v>
@@ -6043,7 +6044,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>62</v>
@@ -6100,10 +6101,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>67</v>
@@ -6120,13 +6121,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>153</v>
@@ -6140,13 +6141,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>153</v>
@@ -6160,13 +6161,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>153</v>
@@ -6180,13 +6181,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>153</v>
@@ -6200,13 +6201,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>153</v>
@@ -6223,7 +6224,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>72</v>
@@ -6243,7 +6244,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>72</v>
@@ -6263,7 +6264,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>72</v>
@@ -6303,7 +6304,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -6323,7 +6324,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>77</v>
@@ -6343,7 +6344,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>77</v>
@@ -6363,7 +6364,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>77</v>

--- a/Param_Tasks.xlsx
+++ b/Param_Tasks.xlsx
@@ -32,27 +32,9 @@
     <t>Определено наличие основных компетенций в команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
   </si>
   <si>
-    <t>Сформулировано предварительное техническое задание, определена архитектура проекта</t>
-  </si>
-  <si>
     <t>Изготовлен макетный образец и продемонстрированы его ключевые характеристики</t>
   </si>
   <si>
-    <t>Изготовлен лабораторный образец, согласована методика стендовых испытаний базовых функций и связи с другими элементами системы, результаты испытаний согласуются с ТЗ</t>
-  </si>
-  <si>
-    <t>Изготовлен полнофункциональный опытный образец, подтверждены рабочие характеристики в условиях, приближенных к реальности</t>
-  </si>
-  <si>
-    <t>Опытно-промышленный образец изготовлен в реальном масштабе на пилотной производственной линии. Проведена его демонстрация в реальных условиях эксплуатации</t>
-  </si>
-  <si>
-    <t>Полнофункциональный образец (реально функционирующая система) изготовлен на производственной линии. Проведено полное тестирование окончательного варианта образца в составе системы в ожидаемых условиях реальной эксплуатации</t>
-  </si>
-  <si>
-    <t>Фактическое/реальное применение продукта/технологии в его/ее окончательном виде и в условиях выполнения реальных заданий</t>
-  </si>
-  <si>
     <t>Требования к производству уточнены на основе конкретных материалов и процессов</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>Task_Comments</t>
   </si>
   <si>
-    <t>Изготовлен образец в реальном масштабе по полупромышленной технологии, испытания расширенного набора функций в лабораторной среде с моделированием основных внешних условий согласуются с ТЗ</t>
-  </si>
-  <si>
     <t>1 Концепция проведения мероприятия. 2 Деловая программа мероприятия. 3 Проведение мероприятия. 4 Проведение во время работы Форума не менее 15 деловых мероприятий в формате «один-на-один». 5 Изготовление и тиражирование электронного каталога Форума на русском и английском языках. 6 Сборник презентаций (на электронном носителе) на русском и английском языках.</t>
   </si>
   <si>
@@ -494,9 +473,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Сформулирована концепция и технологическое видение нового продукта/технологии в соответствии с запросом/требованиями</t>
-  </si>
-  <si>
     <t>С учетом существующих в области железнодорожного транспорта и на рынке продуктов/технологий сформулирована концепция нового продукта/технологии, в т.ч. ожидаемая выгода для Заказчика и возможных потребителей нового продукта/технологии</t>
   </si>
   <si>
@@ -1410,6 +1386,30 @@
   </si>
   <si>
     <t>Определены области ограничений применения технологии (где применять нецелесообразно или запрещено), в т.ч. законодательные ограничения, рыночные ограничения, научно-технологические ограничения, ограничения, связанные с использованием предшествующей и получаемой интеллектуальной собственностью, экологические ограничения и др.</t>
+  </si>
+  <si>
+    <t>Сформулирована фундаментальная концепция технологии и обоснована полезность технологии</t>
+  </si>
+  <si>
+    <t>Определены целевые области применения технологии и ее критические элементы</t>
+  </si>
+  <si>
+    <t>Получен лабораторный образец, подготовлен лабораторный стенд, проведены испытания базовых функций взаимодействия и связи с другими элементами системы</t>
+  </si>
+  <si>
+    <t>По полупромышленной технологии изготовлен и испытан экспериментальный образец в реальном масштабе, проведена эмуляция основных внешних условий</t>
+  </si>
+  <si>
+    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
+  </si>
+  <si>
+    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях реальной эксплуатации в составе конечного продукта</t>
+  </si>
+  <si>
+    <t>Окончательное подтверждение работоспособности промышленного образца. Разработка функционирующей реальной системы завершена</t>
+  </si>
+  <si>
+    <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
   </si>
 </sst>
 </file>
@@ -1783,9 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1794,22 +1792,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1817,16 +1815,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1837,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>455</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1857,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>455</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1877,16 +1875,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1897,16 +1895,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1917,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1937,16 +1935,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1957,16 +1955,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1977,16 +1975,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1997,16 +1995,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2017,16 +2015,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2037,16 +2035,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2057,16 +2055,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2077,16 +2075,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2097,16 +2095,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2117,16 +2115,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2137,16 +2135,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,16 +2155,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2177,16 +2175,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2197,16 +2195,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>458</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2217,16 +2215,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2237,16 +2235,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2257,16 +2255,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2277,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2297,16 +2295,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -2317,16 +2315,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -2337,16 +2335,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -2357,16 +2355,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -2377,16 +2375,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -2397,16 +2395,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -2417,16 +2415,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2437,16 +2435,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -2457,16 +2455,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -2477,16 +2475,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -2497,16 +2495,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -2517,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -2537,16 +2535,16 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -2557,16 +2555,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -2577,16 +2575,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -2612,22 +2610,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2638,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2658,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2678,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2695,16 +2693,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2715,16 +2713,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2735,16 +2733,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2755,16 +2753,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2775,16 +2773,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2795,16 +2793,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2815,16 +2813,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2835,16 +2833,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2855,16 +2853,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2875,16 +2873,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2895,16 +2893,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2915,16 +2913,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2935,16 +2933,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2955,16 +2953,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2975,16 +2973,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2995,16 +2993,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -3015,16 +3013,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -3035,16 +3033,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -3055,16 +3053,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -3075,16 +3073,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -3095,16 +3093,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -3115,16 +3113,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -3135,16 +3133,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -3155,16 +3153,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -3175,16 +3173,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -3195,16 +3193,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -3215,16 +3213,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -3235,16 +3233,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -3255,16 +3253,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -3275,16 +3273,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -3295,16 +3293,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -3315,16 +3313,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -3335,16 +3333,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -3355,16 +3353,16 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -3375,16 +3373,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -3395,16 +3393,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -3427,22 +3425,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3453,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -3473,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -3493,13 +3491,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -3510,16 +3508,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -3530,16 +3528,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -3550,16 +3548,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -3570,16 +3568,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -3590,16 +3588,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -3610,16 +3608,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -3630,16 +3628,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -3650,16 +3648,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -3670,16 +3668,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -3690,16 +3688,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -3710,16 +3708,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -3730,16 +3728,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -3750,16 +3748,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -3770,16 +3768,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -3790,16 +3788,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -3810,16 +3808,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -3830,16 +3828,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -3850,16 +3848,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -3870,16 +3868,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -3890,16 +3888,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -3910,16 +3908,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -3930,16 +3928,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -3950,16 +3948,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -3970,16 +3968,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -3990,16 +3988,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -4010,16 +4008,16 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -4030,16 +4028,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -4050,16 +4048,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -4070,16 +4068,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4090,16 +4088,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -4110,16 +4108,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -4130,16 +4128,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -4150,16 +4148,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -4170,16 +4168,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -4190,16 +4188,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -4210,16 +4208,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -4230,16 +4228,16 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -4250,16 +4248,16 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -4283,22 +4281,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4309,13 +4307,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -4329,13 +4327,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -4349,13 +4347,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -4369,13 +4367,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -4389,13 +4387,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -4406,16 +4404,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -4426,16 +4424,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -4446,16 +4444,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -4466,16 +4464,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -4486,16 +4484,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -4506,16 +4504,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -4526,16 +4524,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -4546,16 +4544,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -4566,16 +4564,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -4586,16 +4584,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -4606,16 +4604,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -4626,16 +4624,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -4646,16 +4644,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -4666,16 +4664,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -4686,16 +4684,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -4706,16 +4704,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -4726,16 +4724,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -4746,16 +4744,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4766,16 +4764,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -4786,16 +4784,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -4806,16 +4804,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -4826,16 +4824,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -4846,16 +4844,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -4866,16 +4864,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -4886,16 +4884,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -4906,16 +4904,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -4926,16 +4924,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4946,16 +4944,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -4966,16 +4964,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -4986,16 +4984,16 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -5006,16 +5004,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -5026,16 +5024,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -5046,16 +5044,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -5066,16 +5064,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -5086,16 +5084,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -5106,16 +5104,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -5126,16 +5124,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -5146,16 +5144,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -5166,16 +5164,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -5186,16 +5184,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -5206,16 +5204,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -5226,16 +5224,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -5246,16 +5244,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -5266,16 +5264,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -5286,16 +5284,16 @@
         <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -5306,16 +5304,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -5326,16 +5324,16 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -5346,16 +5344,16 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -5366,16 +5364,16 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -5386,16 +5384,16 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -5406,16 +5404,16 @@
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -5426,16 +5424,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -5458,22 +5456,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5481,16 +5479,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -5501,16 +5499,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -5521,16 +5519,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -5541,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -5561,16 +5559,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -5581,16 +5579,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -5601,16 +5599,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -5621,16 +5619,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -5641,16 +5639,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -5661,16 +5659,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -5681,16 +5679,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -5701,16 +5699,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -5721,16 +5719,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -5741,16 +5739,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -5761,16 +5759,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -5781,16 +5779,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -5801,16 +5799,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -5821,16 +5819,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -5841,16 +5839,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -5861,16 +5859,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -5881,16 +5879,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -5901,16 +5899,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -5921,16 +5919,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -5941,16 +5939,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -5961,16 +5959,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -5981,16 +5979,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -6001,16 +5999,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -6021,16 +6019,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -6041,16 +6039,16 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -6061,16 +6059,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -6081,16 +6079,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -6101,16 +6099,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -6121,16 +6119,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -6141,16 +6139,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -6161,16 +6159,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -6181,16 +6179,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -6201,16 +6199,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -6221,16 +6219,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -6241,16 +6239,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -6261,16 +6259,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -6281,16 +6279,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -6301,16 +6299,16 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -6321,16 +6319,16 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -6341,16 +6339,16 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -6361,16 +6359,16 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -6381,16 +6379,16 @@
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
